--- a/URS/DbLayouts/L5-管理性作業/PfReward.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/PfReward.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -337,18 +337,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>介紹獎金發放日!=0,表示執行過L5511-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>獎勵津貼發放日!=0,表示執行過L5512-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>協辦獎金發放日!=0,表示執行過L5513-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>獎勵津貼轉檔日</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -363,10 +351,6 @@
   <si>
     <t>撥款序號</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>保費檢核追回，以額度為單位，撥款序號=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>介紹、協辦獎金明細檔</t>
@@ -402,10 +386,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RepayType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>還款類別</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -439,26 +419,6 @@
   </si>
   <si>
     <t>PerfDate ASC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">業績日期=系統營業日
-1.撥貸(計件代碼變更)，為撥款日期；計件代碼變更不可跨工作月
-2.部分償還、提前結案，為會計日
-3.保費檢核追回，為該工作月的業績止日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>※保費檢核時，獎金欄會重算更新</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -468,13 +428,34 @@
   <si>
     <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayType</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.撥貸(計件代碼變更)，為撥款日期
+2.部分償還、提前結案，為會計日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫不用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫不用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫不用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,13 +533,6 @@
       <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -757,37 +731,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1133,10 +1107,10 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1161,7 +1135,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1246,19 +1220,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="97.2">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1276,7 +1250,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1">
@@ -1321,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>26</v>
@@ -1329,29 +1303,27 @@
       <c r="E13" s="23">
         <v>3</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" s="34">
         <v>1</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1359,10 +1331,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>37</v>
@@ -1377,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>37</v>
@@ -1389,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1500,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1534,7 +1506,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>29</v>
@@ -1543,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1577,7 +1549,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>29</v>
@@ -1586,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1716,7 +1688,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1765,7 +1737,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1806,7 +1778,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
@@ -1814,21 +1786,21 @@
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
